--- a/storage/app/plantillas/excel/capacitacion/reporte.xlsx
+++ b/storage/app/plantillas/excel/capacitacion/reporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Projects\laravel\course-tracker-laravel\storage\app\plantillas\excel\capacitacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4EC3B-390D-404F-959E-D8E5E07DB8B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37A184-23CC-40C9-94BC-055D0DCB8AD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1770" windowWidth="27240" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="1860" windowWidth="17790" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mañana" sheetId="1" r:id="rId1"/>
@@ -242,25 +242,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -285,15 +285,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>14111</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28223</xdr:rowOff>
+      <xdr:colOff>728486</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1607949</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14111</xdr:rowOff>
+      <xdr:colOff>2322324</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102984</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,21 +309,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606778" y="225779"/>
-          <a:ext cx="1593838" cy="1566332"/>
+          <a:off x="1252361" y="625150"/>
+          <a:ext cx="1593838" cy="430334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,28 +651,28 @@
       <c r="I7" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -735,9 +734,9 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -748,9 +747,9 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -794,8 +793,8 @@
         <v>24</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -809,8 +808,8 @@
         <v>8</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
         <v>29</v>
       </c>
@@ -855,10 +854,10 @@
       <c r="G22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
@@ -878,16 +877,16 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -1051,12 +1050,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="D13:E13"/>
@@ -1066,6 +1059,12 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
